--- a/Crosswalk/A1_UDS4_programmatic_crosswalk.xlsx
+++ b/Crosswalk/A1_UDS4_programmatic_crosswalk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfmurch\Downloads\updated_crosswalks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfmurch\Desktop\Json_SOPS\Crosswalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8545" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8555" uniqueCount="1139">
   <si>
     <t>TEMPLATE - UDS3 DED (Data Element Dictionary) and RDD (Researcher's Data Dictionary)
 Based on Data Element and Researcher's Data Dictionary PDF at https://naccdata.org/data-collection/forms-documentation/uds-3</t>
@@ -5044,13 +5044,17 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -5074,10 +5078,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Check Cell" xfId="2"/>
@@ -5448,21 +5448,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="E1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="I1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -6051,18 +6051,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="E5:E14"/>
     <mergeCell ref="I5:I14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="E15:E20"/>
     <mergeCell ref="I15:I20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6097,31 +6097,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:25" ht="45">
       <c r="A2" s="14" t="s">
@@ -10534,31 +10534,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
     </row>
     <row r="2" spans="1:23" ht="45">
       <c r="A2" s="14" t="s">
@@ -14591,31 +14591,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="16" t="s">
@@ -22645,11 +22645,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="42" t="s">
@@ -22683,7 +22683,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>1063</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -22694,7 +22694,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="31" t="s">
         <v>165</v>
       </c>
@@ -22703,7 +22703,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="58"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="33" t="s">
         <v>167</v>
       </c>
@@ -22712,7 +22712,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="45">
-      <c r="A8" s="58"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="43" t="s">
         <v>169</v>
       </c>
@@ -22721,7 +22721,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="33" t="s">
         <v>170</v>
       </c>
@@ -22807,35 +22807,35 @@
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="51" t="s">
         <v>1125</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="51" t="s">
         <v>1126</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="51" t="s">
         <v>1127</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="51" t="s">
         <v>475</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="51" t="s">
         <v>345</v>
       </c>
       <c r="B28" s="12"/>
@@ -24485,16 +24485,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="26"/>
       <c r="H1" s="16"/>
     </row>
@@ -40450,7 +40450,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" sqref="A1:B1"/>
@@ -40469,16 +40469,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="50"/>
       <c r="H1" s="16"/>
     </row>
@@ -40619,16 +40619,16 @@
       <c r="C7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="52" t="s">
         <v>1130</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="52" t="s">
         <v>1130</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="52" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -40639,6 +40639,9 @@
       <c r="B8" s="17" t="s">
         <v>344</v>
       </c>
+      <c r="C8" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="D8" s="9" t="s">
         <v>291</v>
       </c>
@@ -40659,6 +40662,9 @@
       <c r="B9" s="17" t="s">
         <v>344</v>
       </c>
+      <c r="C9" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="D9" s="9" t="s">
         <v>191</v>
       </c>
@@ -40679,6 +40685,9 @@
       <c r="B10" s="17" t="s">
         <v>344</v>
       </c>
+      <c r="C10" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="D10" s="9" t="s">
         <v>283</v>
       </c>
@@ -40699,6 +40708,9 @@
       <c r="B11" s="17" t="s">
         <v>344</v>
       </c>
+      <c r="C11" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="D11" s="9" t="s">
         <v>192</v>
       </c>
@@ -40719,6 +40731,9 @@
       <c r="B12" s="17" t="s">
         <v>344</v>
       </c>
+      <c r="C12" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="D12" s="16" t="s">
         <v>1131</v>
       </c>
@@ -40739,6 +40754,9 @@
       <c r="B13" s="17" t="s">
         <v>344</v>
       </c>
+      <c r="C13" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="D13" s="9" t="s">
         <v>1133</v>
       </c>
@@ -40759,6 +40777,9 @@
       <c r="B14" s="17" t="s">
         <v>344</v>
       </c>
+      <c r="C14" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="D14" s="9" t="s">
         <v>1135</v>
       </c>
@@ -40779,6 +40800,9 @@
       <c r="B15" s="17" t="s">
         <v>344</v>
       </c>
+      <c r="C15" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="D15" s="9" t="s">
         <v>1137</v>
       </c>
@@ -40799,6 +40823,9 @@
       <c r="B16" s="17" t="s">
         <v>344</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" s="25" t="s">
         <v>976</v>
       </c>
@@ -40807,6 +40834,9 @@
       </c>
       <c r="F16" s="13" t="s">
         <v>317</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -40820,14 +40850,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41085,21 +41113,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{281A6493-1F0C-453E-819E-2ED93017F2F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AA5E4F3-9B72-420C-85C5-8B45D533C3CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
-    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -41125,9 +41152,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AA5E4F3-9B72-420C-85C5-8B45D533C3CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{281A6493-1F0C-453E-819E-2ED93017F2F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
+    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>